--- a/Datasets/Columnas.xlsx
+++ b/Datasets/Columnas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loperatomas410/Documents/Programación/Proyectos/Fifa Analysis/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loperatomas410/Documents/Programación/Proyectos/Fifa Data Analysis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489212D9-EFD3-E84C-8718-764B769F377A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22750C54-14AB-B64B-817A-CA4483C269A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{711EC69B-F4A8-194A-BBE7-00559843496B}"/>
   </bookViews>
@@ -522,6 +522,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,12 +556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF99AB9-9CC5-D349-8735-70184AAC0537}">
   <dimension ref="B1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,40 +970,40 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="31"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
